--- a/data/system_exception.xlsx
+++ b/data/system_exception.xlsx
@@ -10,17 +10,17 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t xml:space="preserve">Exception</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">Failed to Perform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing mandatory fields</t>
   </si>
 </sst>
 </file>
@@ -71,10 +74,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+  <fonts count="5">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -95,17 +99,10 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -117,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -132,20 +129,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -172,21 +155,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -206,16 +181,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.59"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -223,102 +195,108 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="0" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="0" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="0" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="0" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="0" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="0" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="0" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="0" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/data/system_exception.xlsx
+++ b/data/system_exception.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t xml:space="preserve">Exception</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">Failed to Perform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing mandatory fields</t>
   </si>
 </sst>
 </file>
@@ -181,10 +178,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -284,11 +281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
